--- a/Beam.xlsx
+++ b/Beam.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikon\Documents\git\Beamforming\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -160,61 +164,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -232,7 +188,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -240,53 +196,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -345,15 +267,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -362,26 +302,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -395,6 +335,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -413,9 +354,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -433,13 +371,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -562,6 +513,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26CC-4C9E-BA76-C46D6D8E9D05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -578,12 +534,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -593,18 +546,31 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -727,7 +693,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26CC-4C9E-BA76-C46D6D8E9D05}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="69270683"/>
         <c:axId val="60741580"/>
       </c:scatterChart>
@@ -745,26 +724,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -783,27 +762,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="60741580"/>
@@ -821,7 +802,7 @@
           <c:spPr>
             <a:ln w="6480">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -834,26 +815,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -872,27 +853,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69270683"/>
@@ -903,7 +886,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -920,24 +903,57 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2400"/>
+              <a:t>Remplissage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2400" baseline="0"/>
+              <a:t> du buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -956,9 +972,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -976,12 +989,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1138,159 +1164,6 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,6 +1328,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DDA-4E2D-9C77-37D4D52BAF5C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1471,12 +1349,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1486,17 +1361,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1653,159 +1541,6 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,7 +1705,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DDA-4E2D-9C77-37D4D52BAF5C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="83107804"/>
         <c:axId val="18620405"/>
       </c:scatterChart>
@@ -1988,26 +1736,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="18620405"/>
@@ -2025,7 +1775,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2037,26 +1787,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83107804"/>
@@ -2067,7 +1819,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -2084,24 +1836,52 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2400"/>
+              <a:t>Débit en Beamforming</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2120,9 +1900,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -2140,12 +1917,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2466,6 +2256,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31F8-4EF1-8D6E-7CC41E57142C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2482,12 +2277,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2497,17 +2289,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2828,7 +2633,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31F8-4EF1-8D6E-7CC41E57142C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="48012777"/>
         <c:axId val="79799314"/>
       </c:scatterChart>
@@ -2846,26 +2664,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="79799314"/>
@@ -2883,7 +2703,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2895,26 +2715,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="48012777"/>
@@ -2925,7 +2747,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -2942,22 +2764,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2966,26 +2796,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -2999,6 +2829,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3017,9 +2848,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -3037,13 +2865,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3147,25 +2988,15 @@
                 <c:pt idx="11">
                   <c:v>243</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A278-4A81-9A1D-D3E1C3D1314B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3182,12 +3013,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3197,18 +3025,31 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3309,29 +3150,24 @@
                 <c:pt idx="10">
                   <c:v>581</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A278-4A81-9A1D-D3E1C3D1314B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="86971758"/>
         <c:axId val="29470036"/>
       </c:scatterChart>
@@ -3349,26 +3185,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -3387,27 +3223,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29470036"/>
@@ -3425,7 +3263,7 @@
           <c:spPr>
             <a:ln w="6480">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3438,26 +3276,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -3476,27 +3314,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="86971758"/>
@@ -3507,7 +3347,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -3524,22 +3364,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3548,26 +3396,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -3581,6 +3429,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3599,9 +3448,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -3619,13 +3465,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3748,6 +3607,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A19E-4F36-B123-358A138D80B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3764,12 +3628,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3779,18 +3640,31 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3913,7 +3787,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A19E-4F36-B123-358A138D80B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="47689952"/>
         <c:axId val="31245923"/>
       </c:scatterChart>
@@ -3931,26 +3818,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -3969,27 +3856,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="31245923"/>
@@ -4007,7 +3896,7 @@
           <c:spPr>
             <a:ln w="6480">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4020,26 +3909,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -4058,27 +3947,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="47689952"/>
@@ -4089,7 +3980,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -4106,22 +3997,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4130,26 +4029,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -4163,6 +4062,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4181,9 +4081,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -4201,13 +4098,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4330,6 +4240,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8420-4D2E-8194-DE3508A8B72C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4346,12 +4261,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4361,18 +4273,31 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4495,7 +4420,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8420-4D2E-8194-DE3508A8B72C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="83188095"/>
         <c:axId val="11781004"/>
       </c:scatterChart>
@@ -4513,26 +4451,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -4551,27 +4489,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="11781004"/>
@@ -4589,7 +4529,7 @@
           <c:spPr>
             <a:ln w="6480">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4602,26 +4542,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -4640,27 +4580,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83188095"/>
@@ -4671,7 +4613,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -4688,22 +4630,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4712,26 +4662,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -4745,6 +4695,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4763,9 +4714,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -4783,13 +4731,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4912,6 +4873,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6081-4CE3-BD9C-B50F7383B06E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4928,12 +4894,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4943,18 +4906,31 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5077,7 +5053,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6081-4CE3-BD9C-B50F7383B06E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="60904446"/>
         <c:axId val="31750194"/>
       </c:scatterChart>
@@ -5095,26 +5084,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -5133,27 +5122,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="31750194"/>
@@ -5171,7 +5162,7 @@
           <c:spPr>
             <a:ln w="6480">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5184,26 +5175,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -5222,27 +5213,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="60904446"/>
@@ -5253,7 +5246,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -5270,22 +5263,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5294,26 +5295,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -5327,6 +5328,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -5345,9 +5347,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -5365,13 +5364,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5494,6 +5506,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E569-4FAD-A985-BAF542C3A099}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5510,12 +5527,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5525,18 +5539,31 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5659,7 +5686,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E569-4FAD-A985-BAF542C3A099}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="11326737"/>
         <c:axId val="3478800"/>
       </c:scatterChart>
@@ -5677,26 +5717,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -5715,27 +5755,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="3478800"/>
@@ -5753,7 +5795,7 @@
           <c:spPr>
             <a:ln w="6480">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5766,26 +5808,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -5804,27 +5846,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="11326737"/>
@@ -5835,7 +5879,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -5852,22 +5896,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5876,26 +5928,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -5909,6 +5961,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -5927,9 +5980,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -5947,13 +5997,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -6019,7 +6082,7 @@
             <c:numRef>
               <c:f>Feuille1!$H$52:$H$68</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6028,10 +6091,10 @@
                   <c:v>1.2663252240717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.41696364932288</c:v>
+                  <c:v>1.4169636493228801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.50930115635998</c:v>
+                  <c:v>1.5093011563599801</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.56032799687622</c:v>
@@ -6040,10 +6103,10 @@
                   <c:v>1.59353202282815</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.61224489795918</c:v>
+                  <c:v>1.6122448979591799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.62441860465116</c:v>
+                  <c:v>1.6244186046511599</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.63586178695563</c:v>
@@ -6055,27 +6118,32 @@
                   <c:v>1.665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.666</c:v>
+                  <c:v>1.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6664</c:v>
+                  <c:v>1.6664000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95E1-4324-B122-2725C5960A87}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6092,12 +6160,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6107,18 +6172,31 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -6184,7 +6262,7 @@
             <c:numRef>
               <c:f>Feuille1!$I$52:$I$68</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6193,37 +6271,37 @@
                   <c:v>1.26844783715013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26977040816327</c:v>
+                  <c:v>1.2697704081632699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.26790227464195</c:v>
+                  <c:v>1.2679022746419499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.27055449330784</c:v>
+                  <c:v>1.2705544933078401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.27081218274112</c:v>
+                  <c:v>1.2708121827411201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.26892006802721</c:v>
+                  <c:v>1.2689200680272099</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.2706</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.269</c:v>
+                  <c:v>1.2689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2694</c:v>
+                  <c:v>1.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2694</c:v>
+                  <c:v>1.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2694</c:v>
+                  <c:v>1.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.269</c:v>
+                  <c:v>1.2689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.2698</c:v>
@@ -6232,16 +6310,29 @@
                   <c:v>1.2698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2696</c:v>
+                  <c:v>1.2696000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2692</c:v>
+                  <c:v>1.2692000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95E1-4324-B122-2725C5960A87}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="90455973"/>
         <c:axId val="40499977"/>
       </c:scatterChart>
@@ -6259,26 +6350,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -6297,27 +6388,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="40499977"/>
@@ -6335,7 +6428,7 @@
           <c:spPr>
             <a:ln w="6480">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6348,26 +6441,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -6386,27 +6479,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="90455973"/>
@@ -6417,7 +6512,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -6434,22 +6529,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6458,26 +6561,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -6491,6 +6594,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -6509,9 +6613,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -6529,13 +6630,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -6601,19 +6715,16 @@
             <c:numRef>
               <c:f>Feuille1!$H$4:$H$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>1.32493368700265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.49067859806115</c:v>
+                  <c:v>1.4906785980611501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5742782152231</c:v>
+                  <c:v>1.5742782152231001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.61510500807754</c:v>
@@ -6625,39 +6736,44 @@
                   <c:v>1.64266155531216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.64682352941176</c:v>
+                  <c:v>1.6468235294117599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.64995874587459</c:v>
+                  <c:v>1.6499587458745899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.66533306661332</c:v>
+                  <c:v>1.6653330666133199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6664</c:v>
+                  <c:v>1.6664000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6666</c:v>
+                  <c:v>1.6666000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D8A-4E90-9B4C-C2CF1668FE8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6674,12 +6790,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6689,18 +6802,31 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -6766,19 +6892,16 @@
             <c:numRef>
               <c:f>Feuille1!$I$4:$I$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>1.32493368700265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.32559681697613</c:v>
+                  <c:v>1.3255968169761301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.32464664310954</c:v>
+                  <c:v>1.3246466431095401</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.32417218543046</c:v>
@@ -6799,7 +6922,7 @@
                   <c:v>1.323</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.324</c:v>
+                  <c:v>1.3240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.323</c:v>
@@ -6811,19 +6934,32 @@
                   <c:v>1.323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3238</c:v>
+                  <c:v>1.3238000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3236</c:v>
+                  <c:v>1.3236000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3234</c:v>
+                  <c:v>1.3233999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D8A-4E90-9B4C-C2CF1668FE8E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="26291177"/>
         <c:axId val="67436716"/>
       </c:scatterChart>
@@ -6841,26 +6977,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -6879,27 +7015,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67436716"/>
@@ -6917,7 +7055,7 @@
           <c:spPr>
             <a:ln w="6480">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6930,26 +7068,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -6968,27 +7106,29 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="26291177"/>
@@ -6999,7 +7139,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -7016,24 +7156,57 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2000"/>
+              <a:t>Délai en</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2000" baseline="0"/>
+              <a:t> fonction de la charge</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -7052,9 +7225,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -7072,12 +7242,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -7234,159 +7417,6 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7547,159 +7577,6 @@
                 <c:pt idx="49">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="101">
                   <c:v>4</c:v>
                 </c:pt>
@@ -7849,164 +7726,16 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDB5-4859-900F-059695B7DCEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8023,12 +7752,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8038,17 +7764,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -8205,159 +7944,6 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8518,164 +8104,24 @@
                 <c:pt idx="49">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDB5-4859-900F-059695B7DCEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="61357630"/>
         <c:axId val="36929890"/>
       </c:scatterChart>
@@ -8686,6 +8132,9 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -8693,26 +8142,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="36929890"/>
@@ -8730,11 +8181,14 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -8742,26 +8196,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="61357630"/>
@@ -8772,7 +8228,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -8789,20 +8245,26 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -8816,14 +8278,20 @@
       <xdr:row>87</xdr:row>
       <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5551920" y="8074440"/>
-        <a:ext cx="5670000" cy="3192840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8846,14 +8314,20 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Graphique 2"/>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5590440" y="11166480"/>
-        <a:ext cx="5657760" cy="3162960"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8876,14 +8350,20 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 3"/>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="27000" y="11181600"/>
-        <a:ext cx="5670360" cy="3162960"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8906,14 +8386,20 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 4"/>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5623200" y="14903640"/>
-        <a:ext cx="5657760" cy="3238200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8936,14 +8422,20 @@
       <xdr:row>150</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 5"/>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5623920" y="18044640"/>
-        <a:ext cx="5657760" cy="3166560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8966,14 +8458,20 @@
       <xdr:row>150</xdr:row>
       <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 6"/>
+        <xdr:cNvPr id="7" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="27000" y="18061920"/>
-        <a:ext cx="5670360" cy="3162960"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8996,14 +8494,20 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 7"/>
+        <xdr:cNvPr id="8" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="27000" y="14895360"/>
-        <a:ext cx="5670360" cy="3323880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9026,14 +8530,20 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Graphique 8"/>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="27000" y="8104680"/>
-        <a:ext cx="5670360" cy="3246480"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9056,14 +8566,20 @@
       <xdr:row>204</xdr:row>
       <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvPr id="10" name="Graphique 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7452720" y="21839760"/>
-        <a:ext cx="14490720" cy="8054640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9086,14 +8602,20 @@
       <xdr:row>254</xdr:row>
       <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvPr id="11" name="Graphique 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7467480" y="29951640"/>
-        <a:ext cx="14490720" cy="8054640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9116,14 +8638,20 @@
       <xdr:row>287</xdr:row>
       <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvPr id="12" name="Graphique 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7533360" y="38201400"/>
-        <a:ext cx="14424840" cy="5117040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9136,1558 +8664,1850 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE219"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A220" colorId="64" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y271" activeCellId="0" sqref="Y271"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="59" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="AC161" sqref="AC161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col min="1" max="1025" width="11.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>19</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="W3">
         <v>1</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X3">
         <v>29</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Y3">
         <v>1</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="Z3">
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>19</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4">
         <v>19</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="W4">
         <v>2</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4">
         <v>40</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Y4">
         <v>2</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="Z4">
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>99</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>99</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>75</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>75</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>1.32493368700265</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="1">
         <v>1.32493368700265</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>30</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>29</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5">
         <v>3</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5">
         <v>49</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Y5">
         <v>3</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="Z5">
         <v>45</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>199</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>199</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>134</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>151</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>1.49067859806115</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>1.32559681697613</v>
-      </c>
-      <c r="P6" s="0" t="n">
+      <c r="H6" s="1">
+        <v>1.4906785980611501</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.3255968169761301</v>
+      </c>
+      <c r="P6">
         <v>40</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6">
         <v>40</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="W6">
         <v>4</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6">
         <v>58</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Y6">
         <v>4</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="Z6">
         <v>63</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>299</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>299</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>190</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>226</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>1.5742782152231</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1.32464664310954</v>
-      </c>
-      <c r="P7" s="0" t="n">
+      <c r="H7" s="1">
+        <v>1.5742782152231001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.3246466431095401</v>
+      </c>
+      <c r="P7">
         <v>49</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>49</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="W7">
         <v>5</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7">
         <v>69</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Y7">
         <v>5</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="Z7">
         <v>69</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>399</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>399</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>247</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>302</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>1.61510500807754</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1">
         <v>1.32417218543046</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>59</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>58</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8">
         <v>6</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8">
         <v>79</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8">
         <v>6</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="Z8">
         <v>68</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>499</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>499</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>306</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>377</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>1.63206007182501</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="1">
         <v>1.32458929517753</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>70</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9">
         <v>69</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9">
         <v>7</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9">
         <v>90</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Y9">
         <v>7</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Z9">
         <v>77</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>599</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>599</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>7</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>365</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>453</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="1">
         <v>1.64266155531216</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="1">
         <v>1.32194799471133</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10">
         <v>79</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10">
         <v>79</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10">
         <v>8</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10">
         <v>99</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Y10">
         <v>8</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="Z10">
         <v>90</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>699</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>662</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>34</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>425</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>499</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>1.64682352941176</v>
-      </c>
-      <c r="I11" s="1" t="n">
+      <c r="H11" s="1">
+        <v>1.6468235294117599</v>
+      </c>
+      <c r="I11" s="1">
         <v>1.32366473294659</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11">
         <v>89</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11">
         <v>90</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11">
         <v>9</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11">
         <v>109</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Y11">
         <v>9</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="Z11">
         <v>105</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>799</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>661</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>137</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>484</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>500</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>1.64995874587459</v>
-      </c>
-      <c r="I12" s="1" t="n">
+      <c r="H12" s="1">
+        <v>1.6499587458745899</v>
+      </c>
+      <c r="I12" s="1">
         <v>1.3228</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12">
         <v>99</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12">
         <v>99</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="W12">
         <v>10</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12">
         <v>120</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Y12">
         <v>10</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="Z12">
         <v>101</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>832</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>661</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>39</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>329</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>499</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>500</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>1.66533306661332</v>
-      </c>
-      <c r="I13" s="1" t="n">
+      <c r="H13" s="1">
+        <v>1.6653330666133199</v>
+      </c>
+      <c r="I13" s="1">
         <v>1.323</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13">
         <v>109</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13">
         <v>109</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="W13">
         <v>11</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13">
         <v>130</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Y13">
         <v>11</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="Z13">
         <v>121</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>833</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>662</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>120</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>581</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>500</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>500</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>1.6664</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>1.324</v>
-      </c>
-      <c r="P14" s="0" t="n">
+      <c r="H14" s="1">
+        <v>1.6664000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="P14">
         <v>119</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14">
         <v>120</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="W14">
         <v>12</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14">
         <v>140</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Y14">
         <v>12</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="Z14">
         <v>127</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>833</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>661</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>243</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>500</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>500</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I15" s="1" t="n">
+      <c r="H15" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I15" s="1">
         <v>1.323</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15">
         <v>130</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15">
         <v>130</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="W15">
         <v>13</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15">
         <v>149</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Y15">
         <v>13</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="Z15">
         <v>131</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>833</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>662</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>500</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>500</v>
       </c>
-      <c r="H16" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I16" s="1" t="n">
+      <c r="H16" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I16" s="1">
         <v>1.3244</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16">
         <v>139</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16">
         <v>140</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="W16">
         <v>14</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="X16">
         <v>159</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Y16">
         <v>14</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="Z16">
         <v>139</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>833</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>661</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>500</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>500</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I17" s="1" t="n">
+      <c r="H17" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I17" s="1">
         <v>1.323</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17">
         <v>149</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17">
         <v>149</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="W17">
         <v>15</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="X17">
         <v>169</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Y17">
         <v>15</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="Z17">
         <v>152</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>833</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>661</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>500</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>500</v>
       </c>
-      <c r="H18" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>1.3238</v>
-      </c>
-      <c r="P18" s="0" t="n">
+      <c r="H18" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.3238000000000001</v>
+      </c>
+      <c r="P18">
         <v>159</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18">
         <v>159</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="W18">
         <v>16</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="X18">
         <v>179</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Y18">
         <v>16</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="Z18">
         <v>159</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>833</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>661</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>500</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>500</v>
       </c>
-      <c r="H19" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>1.3236</v>
-      </c>
-      <c r="P19" s="0" t="n">
+      <c r="H19" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.3236000000000001</v>
+      </c>
+      <c r="P19">
         <v>169</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19">
         <v>169</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="W19">
         <v>17</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="X19">
         <v>189</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Y19">
         <v>17</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="Z19">
         <v>175</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>833</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>662</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>500</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>500</v>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>1.3234</v>
-      </c>
-      <c r="P20" s="0" t="n">
+      <c r="H20" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.3233999999999999</v>
+      </c>
+      <c r="P20">
         <v>179</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20">
         <v>179</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="W20">
         <v>18</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="X20">
         <v>200</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Y20">
         <v>18</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="Z20">
         <v>183</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="W21" s="0" t="n">
+    <row r="21" spans="1:27" ht="20.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21">
         <v>19</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="X21">
         <v>209</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Y21">
         <v>19</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="Z21">
         <v>195</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z31" s="0" t="n">
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z31">
         <v>0</v>
       </c>
-      <c r="AA31" s="0" t="s">
+      <c r="AA31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z32" s="0" t="n">
+    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z32">
         <v>1</v>
       </c>
-      <c r="AA32" s="0" t="s">
+      <c r="AA32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z33" s="0" t="n">
+    <row r="33" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z33">
         <v>2</v>
       </c>
-      <c r="AA33" s="0" t="s">
+      <c r="AA33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z34" s="0" t="n">
+    <row r="34" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z34">
         <v>3</v>
       </c>
-      <c r="AA34" s="0" t="s">
+      <c r="AA34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z35" s="0" t="n">
+    <row r="35" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z35">
         <v>4</v>
       </c>
-      <c r="AA35" s="0" t="s">
+      <c r="AA35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z36" s="0" t="n">
+    <row r="36" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z36">
         <v>5</v>
       </c>
-      <c r="AA36" s="0" t="s">
+      <c r="AA36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z37" s="0" t="n">
+    <row r="37" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z37">
         <v>6</v>
       </c>
-      <c r="AA37" s="0" t="s">
+      <c r="AA37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z38" s="0" t="n">
+    <row r="38" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z38">
         <v>7</v>
       </c>
-      <c r="AA38" s="0" t="s">
+      <c r="AA38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z39" s="0" t="n">
+    <row r="39" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z39">
         <v>8</v>
       </c>
-      <c r="AA39" s="0" t="s">
+      <c r="AA39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z40" s="0" t="n">
+    <row r="40" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z40">
         <v>9</v>
       </c>
-      <c r="AA40" s="0" t="s">
+      <c r="AA40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z41" s="0" t="n">
+    <row r="41" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z41">
         <v>10</v>
       </c>
-      <c r="AA41" s="0" t="s">
+      <c r="AA41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z42" s="0" t="n">
+    <row r="42" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z42">
         <v>11</v>
       </c>
-      <c r="AA42" s="0" t="s">
+      <c r="AA42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z43" s="0" t="n">
+    <row r="43" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z43">
         <v>12</v>
       </c>
-      <c r="AA43" s="0" t="s">
+      <c r="AA43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z44" s="0" t="n">
+    <row r="44" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z44">
         <v>13</v>
       </c>
-      <c r="AA44" s="0" t="s">
+      <c r="AA44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z45" s="0" t="n">
+    <row r="45" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z45">
         <v>14</v>
       </c>
-      <c r="AA45" s="0" t="s">
+      <c r="AA45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z46" s="0" t="n">
+    <row r="46" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z46">
         <v>15</v>
       </c>
-      <c r="AA46" s="0" t="s">
+      <c r="AA46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z47" s="0" t="n">
+    <row r="47" spans="26:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z47">
         <v>16</v>
       </c>
-      <c r="AA47" s="0" t="s">
+      <c r="AA47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="19.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="48" spans="26:27" ht="19.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="H51" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>0</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" s="1" t="n">
+      <c r="H52" s="1">
         <v>0</v>
       </c>
-      <c r="I52" s="1" t="n">
+      <c r="I52" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>1</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>95</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>99</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>5</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>4</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53">
         <v>77</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53">
         <v>79</v>
       </c>
-      <c r="H53" s="1" t="n">
+      <c r="H53" s="1">
         <v>1.2663252240717</v>
       </c>
-      <c r="I53" s="1" t="n">
+      <c r="I53" s="1">
         <v>1.26844783715013</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>2</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>192</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>196</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>5</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>5</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54">
         <v>142</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54">
         <v>157</v>
       </c>
-      <c r="H54" s="1" t="n">
-        <v>1.41696364932288</v>
-      </c>
-      <c r="I54" s="1" t="n">
-        <v>1.26977040816327</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="H54" s="1">
+        <v>1.4169636493228801</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1.2697704081632699</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>3</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>296</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>294</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>6</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>6</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55">
         <v>199</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55">
         <v>235</v>
       </c>
-      <c r="H55" s="1" t="n">
-        <v>1.50930115635998</v>
-      </c>
-      <c r="I55" s="1" t="n">
-        <v>1.26790227464195</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="H55" s="1">
+        <v>1.5093011563599801</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1.2679022746419499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>4</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>397</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>400</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>6</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>7</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56">
         <v>255</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56">
         <v>314</v>
       </c>
-      <c r="H56" s="1" t="n">
+      <c r="H56" s="1">
         <v>1.56032799687622</v>
       </c>
-      <c r="I56" s="1" t="n">
-        <v>1.27055449330784</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="I56" s="1">
+        <v>1.2705544933078401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>5</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>500</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>490</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>7</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>8</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57">
         <v>314</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="G57">
         <v>392</v>
       </c>
-      <c r="H57" s="1" t="n">
+      <c r="H57" s="1">
         <v>1.59353202282815</v>
       </c>
-      <c r="I57" s="1" t="n">
-        <v>1.27081218274112</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="I57" s="1">
+        <v>1.2708121827411201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>6</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>595</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>594</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>7</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>9</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58">
         <v>373</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="G58">
         <v>472</v>
       </c>
-      <c r="H58" s="1" t="n">
-        <v>1.61224489795918</v>
-      </c>
-      <c r="I58" s="1" t="n">
-        <v>1.26892006802721</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="H58" s="1">
+        <v>1.6122448979591799</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1.2689200680272099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>7</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>698</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>634</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>53</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59">
         <v>431</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59">
         <v>500</v>
       </c>
-      <c r="H59" s="1" t="n">
-        <v>1.62441860465116</v>
-      </c>
-      <c r="I59" s="1" t="n">
+      <c r="H59" s="1">
+        <v>1.6244186046511599</v>
+      </c>
+      <c r="I59" s="1">
         <v>1.2706</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>8</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>800</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>634</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>9</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>189</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60">
         <v>488</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="G60">
         <v>500</v>
       </c>
-      <c r="H60" s="1" t="n">
+      <c r="H60" s="1">
         <v>1.63586178695563</v>
       </c>
-      <c r="I60" s="1" t="n">
-        <v>1.269</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="I60" s="1">
+        <v>1.2689999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>9</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>831</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>634</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>40</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>410</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61">
         <v>500</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61">
         <v>500</v>
       </c>
-      <c r="H61" s="1" t="n">
+      <c r="H61" s="1">
         <v>1.6616</v>
       </c>
-      <c r="I61" s="1" t="n">
-        <v>1.2694</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="I61" s="1">
+        <v>1.2694000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>10</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>833</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>634</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>117</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>656</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62">
         <v>500</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62">
         <v>500</v>
       </c>
-      <c r="H62" s="1" t="n">
+      <c r="H62" s="1">
         <v>1.665</v>
       </c>
-      <c r="I62" s="1" t="n">
-        <v>1.2694</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="I62" s="1">
+        <v>1.2694000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>11</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>832</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>634</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>237</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>761</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63">
         <v>500</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="G63">
         <v>500</v>
       </c>
-      <c r="H63" s="1" t="n">
-        <v>1.666</v>
-      </c>
-      <c r="I63" s="1" t="n">
-        <v>1.2694</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="H63" s="1">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1.2694000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>12</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>833</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>635</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>363</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>843</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64">
         <v>500</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64">
         <v>500</v>
       </c>
-      <c r="H64" s="1" t="n">
-        <v>1.6664</v>
-      </c>
-      <c r="I64" s="1" t="n">
-        <v>1.269</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="H64" s="1">
+        <v>1.6664000000000001</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1.2689999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>13</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>833</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>634</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>451</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>925</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65">
         <v>500</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65">
         <v>500</v>
       </c>
-      <c r="H65" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I65" s="1" t="n">
+      <c r="H65" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I65" s="1">
         <v>1.2698</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>14</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>833</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>634</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>565</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>1001</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66">
         <v>500</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66">
         <v>500</v>
       </c>
-      <c r="H66" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I66" s="1" t="n">
+      <c r="H66" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I66" s="1">
         <v>1.2698</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>15</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>833</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>634</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>654</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>1078</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67">
         <v>500</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67">
         <v>500</v>
       </c>
-      <c r="H67" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I67" s="1" t="n">
-        <v>1.2696</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="H67" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1.2696000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>16</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>833</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>634</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>710</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>1156</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68">
         <v>500</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68">
         <v>500</v>
       </c>
-      <c r="H68" s="1" t="n">
-        <v>1.6666</v>
-      </c>
-      <c r="I68" s="1" t="n">
-        <v>1.2692</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="1">
+        <v>1.6666000000000001</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1.2692000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -10710,232 +10530,232 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O70" s="2"/>
-      <c r="P70" s="0" t="s">
+      <c r="P70" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O71" s="2"/>
-      <c r="P71" s="0" t="s">
+      <c r="P71" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O81" s="2"/>
-      <c r="R81" s="0" t="n">
+      <c r="R81">
         <v>0</v>
       </c>
-      <c r="S81" s="0" t="s">
+      <c r="S81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O82" s="2"/>
-      <c r="R82" s="0" t="n">
+      <c r="R82">
         <v>1</v>
       </c>
-      <c r="S82" s="0" t="s">
+      <c r="S82" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O83" s="2"/>
-      <c r="R83" s="0" t="n">
+      <c r="R83">
         <v>2</v>
       </c>
-      <c r="S83" s="0" t="s">
+      <c r="S83" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O84" s="2"/>
-      <c r="R84" s="0" t="n">
+      <c r="R84">
         <v>3</v>
       </c>
-      <c r="S84" s="0" t="s">
+      <c r="S84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O85" s="2"/>
-      <c r="R85" s="0" t="n">
+      <c r="R85">
         <v>4</v>
       </c>
-      <c r="S85" s="0" t="s">
+      <c r="S85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O86" s="2"/>
-      <c r="R86" s="0" t="n">
+      <c r="R86">
         <v>5</v>
       </c>
-      <c r="S86" s="0" t="s">
+      <c r="S86" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O87" s="2"/>
-      <c r="R87" s="0" t="n">
+      <c r="R87">
         <v>6</v>
       </c>
-      <c r="S87" s="0" t="s">
+      <c r="S87" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O88" s="2"/>
-      <c r="R88" s="0" t="n">
+      <c r="R88">
         <v>7</v>
       </c>
-      <c r="S88" s="0" t="s">
+      <c r="S88" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O89" s="2"/>
-      <c r="R89" s="0" t="n">
+      <c r="R89">
         <v>8</v>
       </c>
-      <c r="S89" s="0" t="s">
+      <c r="S89" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O90" s="2"/>
-      <c r="R90" s="0" t="n">
+      <c r="R90">
         <v>9</v>
       </c>
-      <c r="S90" s="0" t="s">
+      <c r="S90" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O91" s="2"/>
-      <c r="R91" s="0" t="n">
+      <c r="R91">
         <v>10</v>
       </c>
-      <c r="S91" s="0" t="s">
+      <c r="S91" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O92" s="2"/>
-      <c r="R92" s="0" t="n">
+      <c r="R92">
         <v>11</v>
       </c>
-      <c r="S92" s="0" t="s">
+      <c r="S92" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O93" s="2"/>
-      <c r="R93" s="0" t="n">
+      <c r="R93">
         <v>12</v>
       </c>
-      <c r="S93" s="0" t="s">
+      <c r="S93" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O94" s="2"/>
-      <c r="R94" s="0" t="n">
+      <c r="R94">
         <v>13</v>
       </c>
-      <c r="S94" s="0" t="s">
+      <c r="S94" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O95" s="2"/>
-      <c r="R95" s="0" t="n">
+      <c r="R95">
         <v>14</v>
       </c>
-      <c r="S95" s="0" t="s">
+      <c r="S95" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O96" s="2"/>
-      <c r="R96" s="0" t="n">
+      <c r="R96">
         <v>15</v>
       </c>
-      <c r="S96" s="0" t="s">
+      <c r="S96" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O97" s="2"/>
-      <c r="R97" s="0" t="n">
+      <c r="R97">
         <v>16</v>
       </c>
-      <c r="S97" s="0" t="s">
+      <c r="S97" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -10958,7 +10778,7 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10981,7 +10801,7 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -11004,7 +10824,7 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -11027,130 +10847,130 @@
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O113" s="2"/>
-      <c r="P113" s="0" t="s">
+      <c r="P113" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O114" s="2"/>
-      <c r="P114" s="0" t="s">
+      <c r="P114" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -11173,7 +10993,7 @@
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -11196,1192 +11016,1191 @@
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="0" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>4</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" t="s">
         <v>13</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" t="s">
         <v>14</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" t="s">
         <v>15</v>
       </c>
-      <c r="E169" s="0" t="s">
+      <c r="E169" t="s">
         <v>16</v>
       </c>
-      <c r="F169" s="0" t="s">
+      <c r="F169" t="s">
         <v>17</v>
       </c>
-      <c r="G169" s="0" t="s">
+      <c r="G169" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="n">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>0</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B170">
         <v>4</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C170">
         <v>4</v>
       </c>
-      <c r="D170" s="0" t="n">
+      <c r="D170">
         <v>14</v>
       </c>
-      <c r="E170" s="0" t="n">
+      <c r="E170">
         <v>13</v>
       </c>
-      <c r="F170" s="0" t="n">
+      <c r="F170">
         <v>25</v>
       </c>
-      <c r="G170" s="0" t="n">
+      <c r="G170">
         <v>23</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="n">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>1</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B171">
         <v>4</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171">
         <v>4</v>
       </c>
-      <c r="D171" s="0" t="n">
+      <c r="D171">
         <v>29</v>
       </c>
-      <c r="E171" s="0" t="n">
+      <c r="E171">
         <v>26</v>
       </c>
-      <c r="F171" s="0" t="n">
+      <c r="F171">
         <v>34</v>
       </c>
-      <c r="G171" s="0" t="n">
+      <c r="G171">
         <v>35</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="n">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>2</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B172">
         <v>4</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172">
         <v>4</v>
       </c>
-      <c r="D172" s="0" t="n">
+      <c r="D172">
         <v>33</v>
       </c>
-      <c r="E172" s="0" t="n">
+      <c r="E172">
         <v>34</v>
       </c>
-      <c r="F172" s="0" t="n">
+      <c r="F172">
         <v>44</v>
       </c>
-      <c r="G172" s="0" t="n">
+      <c r="G172">
         <v>44</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="n">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>3</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B173">
         <v>5</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173">
         <v>5</v>
       </c>
-      <c r="D173" s="0" t="n">
+      <c r="D173">
         <v>43</v>
       </c>
-      <c r="E173" s="0" t="n">
+      <c r="E173">
         <v>53</v>
       </c>
-      <c r="F173" s="0" t="n">
+      <c r="F173">
         <v>54</v>
       </c>
-      <c r="G173" s="0" t="n">
+      <c r="G173">
         <v>54</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="n">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>4</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B174">
         <v>5</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C174">
         <v>5</v>
       </c>
-      <c r="D174" s="0" t="n">
+      <c r="D174">
         <v>56</v>
       </c>
-      <c r="E174" s="0" t="n">
+      <c r="E174">
         <v>49</v>
       </c>
-      <c r="F174" s="0" t="n">
+      <c r="F174">
         <v>65</v>
       </c>
-      <c r="G174" s="0" t="n">
+      <c r="G174">
         <v>65</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="n">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>5</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B175">
         <v>5</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C175">
         <v>5</v>
       </c>
-      <c r="D175" s="0" t="n">
+      <c r="D175">
         <v>65</v>
       </c>
-      <c r="E175" s="0" t="n">
+      <c r="E175">
         <v>64</v>
       </c>
-      <c r="F175" s="0" t="n">
+      <c r="F175">
         <v>74</v>
       </c>
-      <c r="G175" s="0" t="n">
+      <c r="G175">
         <v>74</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="n">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>6</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B176">
         <v>5</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C176">
         <v>5</v>
       </c>
-      <c r="D176" s="0" t="n">
+      <c r="D176">
         <v>74</v>
       </c>
-      <c r="E176" s="0" t="n">
+      <c r="E176">
         <v>72</v>
       </c>
-      <c r="F176" s="0" t="n">
+      <c r="F176">
         <v>85</v>
       </c>
-      <c r="G176" s="0" t="n">
+      <c r="G176">
         <v>85</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="n">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>7</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B177">
         <v>5</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177">
         <v>5</v>
       </c>
-      <c r="D177" s="0" t="n">
+      <c r="D177">
         <v>84</v>
       </c>
-      <c r="E177" s="0" t="n">
+      <c r="E177">
         <v>82</v>
       </c>
-      <c r="F177" s="0" t="n">
+      <c r="F177">
         <v>95</v>
       </c>
-      <c r="G177" s="0" t="n">
+      <c r="G177">
         <v>96</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="n">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>8</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B178">
         <v>6</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178">
         <v>6</v>
       </c>
-      <c r="D178" s="0" t="n">
+      <c r="D178">
         <v>87</v>
       </c>
-      <c r="E178" s="0" t="n">
+      <c r="E178">
         <v>91</v>
       </c>
-      <c r="F178" s="0" t="n">
+      <c r="F178">
         <v>104</v>
       </c>
-      <c r="G178" s="0" t="n">
+      <c r="G178">
         <v>105</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="n">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>9</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B179">
         <v>6</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179">
         <v>6</v>
       </c>
-      <c r="D179" s="0" t="n">
+      <c r="D179">
         <v>98</v>
       </c>
-      <c r="E179" s="0" t="n">
+      <c r="E179">
         <v>98</v>
       </c>
-      <c r="F179" s="0" t="n">
+      <c r="F179">
         <v>114</v>
       </c>
-      <c r="G179" s="0" t="n">
+      <c r="G179">
         <v>115</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="n">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>10</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B180">
         <v>6</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180">
         <v>6</v>
       </c>
-      <c r="D180" s="0" t="n">
+      <c r="D180">
         <v>116</v>
       </c>
-      <c r="E180" s="0" t="n">
+      <c r="E180">
         <v>123</v>
       </c>
-      <c r="F180" s="0" t="n">
+      <c r="F180">
         <v>125</v>
       </c>
-      <c r="G180" s="0" t="n">
+      <c r="G180">
         <v>125</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="n">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>11</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B181">
         <v>6</v>
       </c>
-      <c r="C181" s="0" t="n">
+      <c r="C181">
         <v>6</v>
       </c>
-      <c r="D181" s="0" t="n">
+      <c r="D181">
         <v>126</v>
       </c>
-      <c r="E181" s="0" t="n">
+      <c r="E181">
         <v>116</v>
       </c>
-      <c r="F181" s="0" t="n">
+      <c r="F181">
         <v>134</v>
       </c>
-      <c r="G181" s="0" t="n">
+      <c r="G181">
         <v>135</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="n">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>12</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B182">
         <v>6</v>
       </c>
-      <c r="C182" s="0" t="n">
+      <c r="C182">
         <v>6</v>
       </c>
-      <c r="D182" s="0" t="n">
+      <c r="D182">
         <v>125</v>
       </c>
-      <c r="E182" s="0" t="n">
+      <c r="E182">
         <v>123</v>
       </c>
-      <c r="F182" s="0" t="n">
+      <c r="F182">
         <v>144</v>
       </c>
-      <c r="G182" s="0" t="n">
+      <c r="G182">
         <v>144</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="n">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>13</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B183">
         <v>7</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C183">
         <v>7</v>
       </c>
-      <c r="D183" s="0" t="n">
+      <c r="D183">
         <v>142</v>
       </c>
-      <c r="E183" s="0" t="n">
+      <c r="E183">
         <v>132</v>
       </c>
-      <c r="F183" s="0" t="n">
+      <c r="F183">
         <v>155</v>
       </c>
-      <c r="G183" s="0" t="n">
+      <c r="G183">
         <v>155</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="n">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>14</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B184">
         <v>7</v>
       </c>
-      <c r="C184" s="0" t="n">
+      <c r="C184">
         <v>7</v>
       </c>
-      <c r="D184" s="0" t="n">
+      <c r="D184">
         <v>140</v>
       </c>
-      <c r="E184" s="0" t="n">
+      <c r="E184">
         <v>143</v>
       </c>
-      <c r="F184" s="0" t="n">
+      <c r="F184">
         <v>164</v>
       </c>
-      <c r="G184" s="0" t="n">
+      <c r="G184">
         <v>164</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="n">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>15</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B185">
         <v>7</v>
       </c>
-      <c r="C185" s="0" t="n">
+      <c r="C185">
         <v>7</v>
       </c>
-      <c r="D185" s="0" t="n">
+      <c r="D185">
         <v>158</v>
       </c>
-      <c r="E185" s="0" t="n">
+      <c r="E185">
         <v>147</v>
       </c>
-      <c r="F185" s="0" t="n">
+      <c r="F185">
         <v>175</v>
       </c>
-      <c r="G185" s="0" t="n">
+      <c r="G185">
         <v>174</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="n">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>16</v>
       </c>
-      <c r="B186" s="0" t="n">
+      <c r="B186">
         <v>7</v>
       </c>
-      <c r="C186" s="0" t="n">
+      <c r="C186">
         <v>7</v>
       </c>
-      <c r="D186" s="0" t="n">
+      <c r="D186">
         <v>170</v>
       </c>
-      <c r="E186" s="0" t="n">
+      <c r="E186">
         <v>159</v>
       </c>
-      <c r="F186" s="0" t="n">
+      <c r="F186">
         <v>184</v>
       </c>
-      <c r="G186" s="0" t="n">
+      <c r="G186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="n">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>17</v>
       </c>
-      <c r="B187" s="0" t="n">
+      <c r="B187">
         <v>8</v>
       </c>
-      <c r="C187" s="0" t="n">
+      <c r="C187">
         <v>8</v>
       </c>
-      <c r="D187" s="0" t="n">
+      <c r="D187">
         <v>171</v>
       </c>
-      <c r="E187" s="0" t="n">
+      <c r="E187">
         <v>166</v>
       </c>
-      <c r="F187" s="0" t="n">
+      <c r="F187">
         <v>194</v>
       </c>
-      <c r="G187" s="0" t="n">
+      <c r="G187">
         <v>194</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="n">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>18</v>
       </c>
-      <c r="B188" s="0" t="n">
+      <c r="B188">
         <v>8</v>
       </c>
-      <c r="C188" s="0" t="n">
+      <c r="C188">
         <v>8</v>
       </c>
-      <c r="D188" s="0" t="n">
+      <c r="D188">
         <v>178</v>
       </c>
-      <c r="E188" s="0" t="n">
+      <c r="E188">
         <v>179</v>
       </c>
-      <c r="F188" s="0" t="n">
+      <c r="F188">
         <v>204</v>
       </c>
-      <c r="G188" s="0" t="n">
+      <c r="G188">
         <v>203</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="n">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>19</v>
       </c>
-      <c r="B189" s="0" t="n">
+      <c r="B189">
         <v>8</v>
       </c>
-      <c r="C189" s="0" t="n">
+      <c r="C189">
         <v>8</v>
       </c>
-      <c r="D189" s="0" t="n">
+      <c r="D189">
         <v>195</v>
       </c>
-      <c r="E189" s="0" t="n">
+      <c r="E189">
         <v>188</v>
       </c>
-      <c r="F189" s="0" t="n">
+      <c r="F189">
         <v>214</v>
       </c>
-      <c r="G189" s="0" t="n">
+      <c r="G189">
         <v>214</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="n">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>20</v>
       </c>
-      <c r="B190" s="0" t="n">
+      <c r="B190">
         <v>8</v>
       </c>
-      <c r="C190" s="0" t="n">
+      <c r="C190">
         <v>8</v>
       </c>
-      <c r="D190" s="0" t="n">
+      <c r="D190">
         <v>201</v>
       </c>
-      <c r="E190" s="0" t="n">
+      <c r="E190">
         <v>193</v>
       </c>
-      <c r="F190" s="0" t="n">
+      <c r="F190">
         <v>224</v>
       </c>
-      <c r="G190" s="0" t="n">
+      <c r="G190">
         <v>225</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="n">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>21</v>
       </c>
-      <c r="B191" s="0" t="n">
+      <c r="B191">
         <v>8</v>
       </c>
-      <c r="C191" s="0" t="n">
+      <c r="C191">
         <v>8</v>
       </c>
-      <c r="D191" s="0" t="n">
+      <c r="D191">
         <v>208</v>
       </c>
-      <c r="E191" s="0" t="n">
+      <c r="E191">
         <v>213</v>
       </c>
-      <c r="F191" s="0" t="n">
+      <c r="F191">
         <v>234</v>
       </c>
-      <c r="G191" s="0" t="n">
+      <c r="G191">
         <v>235</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="n">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>22</v>
       </c>
-      <c r="B192" s="0" t="n">
+      <c r="B192">
         <v>8</v>
       </c>
-      <c r="C192" s="0" t="n">
+      <c r="C192">
         <v>16</v>
       </c>
-      <c r="D192" s="0" t="n">
+      <c r="D192">
         <v>224</v>
       </c>
-      <c r="E192" s="0" t="n">
+      <c r="E192">
         <v>541</v>
       </c>
-      <c r="F192" s="0" t="n">
+      <c r="F192">
         <v>244</v>
       </c>
-      <c r="G192" s="0" t="n">
+      <c r="G192">
         <v>241</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="n">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>23</v>
       </c>
-      <c r="B193" s="0" t="n">
+      <c r="B193">
         <v>8</v>
       </c>
-      <c r="C193" s="0" t="n">
+      <c r="C193">
         <v>37</v>
       </c>
-      <c r="D193" s="0" t="n">
+      <c r="D193">
         <v>217</v>
       </c>
-      <c r="E193" s="0" t="n">
+      <c r="E193">
         <v>999</v>
       </c>
-      <c r="F193" s="0" t="n">
+      <c r="F193">
         <v>254</v>
       </c>
-      <c r="G193" s="0" t="n">
+      <c r="G193">
         <v>241</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="n">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>24</v>
       </c>
-      <c r="B194" s="0" t="n">
+      <c r="B194">
         <v>8</v>
       </c>
-      <c r="C194" s="0" t="n">
+      <c r="C194">
         <v>42</v>
       </c>
-      <c r="D194" s="0" t="n">
+      <c r="D194">
         <v>228</v>
       </c>
-      <c r="E194" s="0" t="n">
+      <c r="E194">
         <v>999</v>
       </c>
-      <c r="F194" s="0" t="n">
+      <c r="F194">
         <v>264</v>
       </c>
-      <c r="G194" s="0" t="n">
+      <c r="G194">
         <v>242</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="n">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>25</v>
       </c>
-      <c r="B195" s="0" t="n">
+      <c r="B195">
         <v>8</v>
       </c>
-      <c r="C195" s="0" t="n">
+      <c r="C195">
         <v>42</v>
       </c>
-      <c r="D195" s="0" t="n">
+      <c r="D195">
         <v>244</v>
       </c>
-      <c r="E195" s="0" t="n">
+      <c r="E195">
         <v>999</v>
       </c>
-      <c r="F195" s="0" t="n">
+      <c r="F195">
         <v>275</v>
       </c>
-      <c r="G195" s="0" t="n">
+      <c r="G195">
         <v>241</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="n">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>26</v>
       </c>
-      <c r="B196" s="0" t="n">
+      <c r="B196">
         <v>8</v>
       </c>
-      <c r="C196" s="0" t="n">
+      <c r="C196">
         <v>42</v>
       </c>
-      <c r="D196" s="0" t="n">
+      <c r="D196">
         <v>253</v>
       </c>
-      <c r="E196" s="0" t="n">
+      <c r="E196">
         <v>1000</v>
       </c>
-      <c r="F196" s="0" t="n">
+      <c r="F196">
         <v>285</v>
       </c>
-      <c r="G196" s="0" t="n">
+      <c r="G196">
         <v>241</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="n">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>27</v>
       </c>
-      <c r="B197" s="0" t="n">
+      <c r="B197">
         <v>8</v>
       </c>
-      <c r="C197" s="0" t="n">
+      <c r="C197">
         <v>42</v>
       </c>
-      <c r="D197" s="0" t="n">
+      <c r="D197">
         <v>264</v>
       </c>
-      <c r="E197" s="0" t="n">
+      <c r="E197">
         <v>1001</v>
       </c>
-      <c r="F197" s="0" t="n">
+      <c r="F197">
         <v>294</v>
       </c>
-      <c r="G197" s="0" t="n">
+      <c r="G197">
         <v>241</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="n">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>28</v>
       </c>
-      <c r="B198" s="0" t="n">
+      <c r="B198">
         <v>8</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C198">
         <v>42</v>
       </c>
-      <c r="D198" s="0" t="n">
+      <c r="D198">
         <v>275</v>
       </c>
-      <c r="E198" s="0" t="n">
+      <c r="E198">
         <v>1000</v>
       </c>
-      <c r="F198" s="0" t="n">
+      <c r="F198">
         <v>304</v>
       </c>
-      <c r="G198" s="0" t="n">
+      <c r="G198">
         <v>241</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="n">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>29</v>
       </c>
-      <c r="B199" s="0" t="n">
+      <c r="B199">
         <v>8</v>
       </c>
-      <c r="C199" s="0" t="n">
+      <c r="C199">
         <v>42</v>
       </c>
-      <c r="D199" s="0" t="n">
+      <c r="D199">
         <v>282</v>
       </c>
-      <c r="E199" s="0" t="n">
+      <c r="E199">
         <v>1000</v>
       </c>
-      <c r="F199" s="0" t="n">
+      <c r="F199">
         <v>314</v>
       </c>
-      <c r="G199" s="0" t="n">
+      <c r="G199">
         <v>241</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="n">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>30</v>
       </c>
-      <c r="B200" s="0" t="n">
+      <c r="B200">
         <v>8</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="C200">
         <v>42</v>
       </c>
-      <c r="D200" s="0" t="n">
+      <c r="D200">
         <v>286</v>
       </c>
-      <c r="E200" s="0" t="n">
+      <c r="E200">
         <v>1001</v>
       </c>
-      <c r="F200" s="0" t="n">
+      <c r="F200">
         <v>324</v>
       </c>
-      <c r="G200" s="0" t="n">
+      <c r="G200">
         <v>241</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="n">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>31</v>
       </c>
-      <c r="B201" s="0" t="n">
+      <c r="B201">
         <v>8</v>
       </c>
-      <c r="C201" s="0" t="n">
+      <c r="C201">
         <v>42</v>
       </c>
-      <c r="D201" s="0" t="n">
+      <c r="D201">
         <v>300</v>
       </c>
-      <c r="E201" s="0" t="n">
+      <c r="E201">
         <v>1000</v>
       </c>
-      <c r="F201" s="0" t="n">
+      <c r="F201">
         <v>335</v>
       </c>
-      <c r="G201" s="0" t="n">
+      <c r="G201">
         <v>241</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="n">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>32</v>
       </c>
-      <c r="B202" s="0" t="n">
+      <c r="B202">
         <v>8</v>
       </c>
-      <c r="C202" s="0" t="n">
+      <c r="C202">
         <v>42</v>
       </c>
-      <c r="D202" s="0" t="n">
+      <c r="D202">
         <v>305</v>
       </c>
-      <c r="E202" s="0" t="n">
+      <c r="E202">
         <v>1001</v>
       </c>
-      <c r="F202" s="0" t="n">
+      <c r="F202">
         <v>344</v>
       </c>
-      <c r="G202" s="0" t="n">
+      <c r="G202">
         <v>241</v>
       </c>
-      <c r="AE202" s="0" t="n">
+      <c r="AE202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="n">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>33</v>
       </c>
-      <c r="B203" s="0" t="n">
+      <c r="B203">
         <v>8</v>
       </c>
-      <c r="C203" s="0" t="n">
+      <c r="C203">
         <v>42</v>
       </c>
-      <c r="D203" s="0" t="n">
+      <c r="D203">
         <v>318</v>
       </c>
-      <c r="E203" s="0" t="n">
+      <c r="E203">
         <v>1001</v>
       </c>
-      <c r="F203" s="0" t="n">
+      <c r="F203">
         <v>355</v>
       </c>
-      <c r="G203" s="0" t="n">
+      <c r="G203">
         <v>242</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="n">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>34</v>
       </c>
-      <c r="B204" s="0" t="n">
+      <c r="B204">
         <v>8</v>
       </c>
-      <c r="C204" s="0" t="n">
+      <c r="C204">
         <v>42</v>
       </c>
-      <c r="D204" s="0" t="n">
+      <c r="D204">
         <v>321</v>
       </c>
-      <c r="E204" s="0" t="n">
+      <c r="E204">
         <v>1000</v>
       </c>
-      <c r="F204" s="0" t="n">
+      <c r="F204">
         <v>364</v>
       </c>
-      <c r="G204" s="0" t="n">
+      <c r="G204">
         <v>241</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="n">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>35</v>
       </c>
-      <c r="B205" s="0" t="n">
+      <c r="B205">
         <v>8</v>
       </c>
-      <c r="C205" s="0" t="n">
+      <c r="C205">
         <v>42</v>
       </c>
-      <c r="D205" s="0" t="n">
+      <c r="D205">
         <v>330</v>
       </c>
-      <c r="E205" s="0" t="n">
+      <c r="E205">
         <v>1001</v>
       </c>
-      <c r="F205" s="0" t="n">
+      <c r="F205">
         <v>375</v>
       </c>
-      <c r="G205" s="0" t="n">
+      <c r="G205">
         <v>241</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="n">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>36</v>
       </c>
-      <c r="B206" s="0" t="n">
+      <c r="B206">
         <v>8</v>
       </c>
-      <c r="C206" s="0" t="n">
+      <c r="C206">
         <v>42</v>
       </c>
-      <c r="D206" s="0" t="n">
+      <c r="D206">
         <v>344</v>
       </c>
-      <c r="E206" s="0" t="n">
+      <c r="E206">
         <v>1001</v>
       </c>
-      <c r="F206" s="0" t="n">
+      <c r="F206">
         <v>385</v>
       </c>
-      <c r="G206" s="0" t="n">
+      <c r="G206">
         <v>242</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="n">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>37</v>
       </c>
-      <c r="B207" s="0" t="n">
+      <c r="B207">
         <v>8</v>
       </c>
-      <c r="C207" s="0" t="n">
+      <c r="C207">
         <v>42</v>
       </c>
-      <c r="D207" s="0" t="n">
+      <c r="D207">
         <v>352</v>
       </c>
-      <c r="E207" s="0" t="n">
+      <c r="E207">
         <v>1001</v>
       </c>
-      <c r="F207" s="0" t="n">
+      <c r="F207">
         <v>395</v>
       </c>
-      <c r="G207" s="0" t="n">
+      <c r="G207">
         <v>241</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="n">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>38</v>
       </c>
-      <c r="B208" s="0" t="n">
+      <c r="B208">
         <v>8</v>
       </c>
-      <c r="C208" s="0" t="n">
+      <c r="C208">
         <v>42</v>
       </c>
-      <c r="D208" s="0" t="n">
+      <c r="D208">
         <v>357</v>
       </c>
-      <c r="E208" s="0" t="n">
+      <c r="E208">
         <v>1001</v>
       </c>
-      <c r="F208" s="0" t="n">
+      <c r="F208">
         <v>405</v>
       </c>
-      <c r="G208" s="0" t="n">
+      <c r="G208">
         <v>241</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="n">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>39</v>
       </c>
-      <c r="B209" s="0" t="n">
+      <c r="B209">
         <v>8</v>
       </c>
-      <c r="C209" s="0" t="n">
+      <c r="C209">
         <v>42</v>
       </c>
-      <c r="D209" s="0" t="n">
+      <c r="D209">
         <v>360</v>
       </c>
-      <c r="E209" s="0" t="n">
+      <c r="E209">
         <v>1000</v>
       </c>
-      <c r="F209" s="0" t="n">
+      <c r="F209">
         <v>415</v>
       </c>
-      <c r="G209" s="0" t="n">
+      <c r="G209">
         <v>241</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="n">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
         <v>40</v>
       </c>
-      <c r="B210" s="0" t="n">
+      <c r="B210">
         <v>8</v>
       </c>
-      <c r="C210" s="0" t="n">
+      <c r="C210">
         <v>42</v>
       </c>
-      <c r="D210" s="0" t="n">
+      <c r="D210">
         <v>376</v>
       </c>
-      <c r="E210" s="0" t="n">
+      <c r="E210">
         <v>999</v>
       </c>
-      <c r="F210" s="0" t="n">
+      <c r="F210">
         <v>424</v>
       </c>
-      <c r="G210" s="0" t="n">
+      <c r="G210">
         <v>241</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="n">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>41</v>
       </c>
-      <c r="B211" s="0" t="n">
+      <c r="B211">
         <v>8</v>
       </c>
-      <c r="C211" s="0" t="n">
+      <c r="C211">
         <v>42</v>
       </c>
-      <c r="D211" s="0" t="n">
+      <c r="D211">
         <v>396</v>
       </c>
-      <c r="E211" s="0" t="n">
+      <c r="E211">
         <v>1001</v>
       </c>
-      <c r="F211" s="0" t="n">
+      <c r="F211">
         <v>435</v>
       </c>
-      <c r="G211" s="0" t="n">
+      <c r="G211">
         <v>241</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="n">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>42</v>
       </c>
-      <c r="B212" s="0" t="n">
+      <c r="B212">
         <v>8</v>
       </c>
-      <c r="C212" s="0" t="n">
+      <c r="C212">
         <v>42</v>
       </c>
-      <c r="D212" s="0" t="n">
+      <c r="D212">
         <v>399</v>
       </c>
-      <c r="E212" s="0" t="n">
+      <c r="E212">
         <v>1000</v>
       </c>
-      <c r="F212" s="0" t="n">
+      <c r="F212">
         <v>445</v>
       </c>
-      <c r="G212" s="0" t="n">
+      <c r="G212">
         <v>241</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="n">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>43</v>
       </c>
-      <c r="B213" s="0" t="n">
+      <c r="B213">
         <v>8</v>
       </c>
-      <c r="C213" s="0" t="n">
+      <c r="C213">
         <v>42</v>
       </c>
-      <c r="D213" s="0" t="n">
+      <c r="D213">
         <v>401</v>
       </c>
-      <c r="E213" s="0" t="n">
+      <c r="E213">
         <v>999</v>
       </c>
-      <c r="F213" s="0" t="n">
+      <c r="F213">
         <v>455</v>
       </c>
-      <c r="G213" s="0" t="n">
+      <c r="G213">
         <v>241</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="n">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>44</v>
       </c>
-      <c r="B214" s="0" t="n">
+      <c r="B214">
         <v>8</v>
       </c>
-      <c r="C214" s="0" t="n">
+      <c r="C214">
         <v>42</v>
       </c>
-      <c r="D214" s="0" t="n">
+      <c r="D214">
         <v>410</v>
       </c>
-      <c r="E214" s="0" t="n">
+      <c r="E214">
         <v>999</v>
       </c>
-      <c r="F214" s="0" t="n">
+      <c r="F214">
         <v>464</v>
       </c>
-      <c r="G214" s="0" t="n">
+      <c r="G214">
         <v>241</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="n">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>45</v>
       </c>
-      <c r="B215" s="0" t="n">
+      <c r="B215">
         <v>8</v>
       </c>
-      <c r="C215" s="0" t="n">
+      <c r="C215">
         <v>42</v>
       </c>
-      <c r="D215" s="0" t="n">
+      <c r="D215">
         <v>425</v>
       </c>
-      <c r="E215" s="0" t="n">
+      <c r="E215">
         <v>1000</v>
       </c>
-      <c r="F215" s="0" t="n">
+      <c r="F215">
         <v>474</v>
       </c>
-      <c r="G215" s="0" t="n">
+      <c r="G215">
         <v>242</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="n">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>46</v>
       </c>
-      <c r="B216" s="0" t="n">
+      <c r="B216">
         <v>10</v>
       </c>
-      <c r="C216" s="0" t="n">
+      <c r="C216">
         <v>42</v>
       </c>
-      <c r="D216" s="0" t="n">
+      <c r="D216">
         <v>616</v>
       </c>
-      <c r="E216" s="0" t="n">
+      <c r="E216">
         <v>1001</v>
       </c>
-      <c r="F216" s="0" t="n">
+      <c r="F216">
         <v>482</v>
       </c>
-      <c r="G216" s="0" t="n">
+      <c r="G216">
         <v>241</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="n">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
         <v>47</v>
       </c>
-      <c r="B217" s="0" t="n">
+      <c r="B217">
         <v>19</v>
       </c>
-      <c r="C217" s="0" t="n">
+      <c r="C217">
         <v>42</v>
       </c>
-      <c r="D217" s="0" t="n">
+      <c r="D217">
         <v>973</v>
       </c>
-      <c r="E217" s="0" t="n">
+      <c r="E217">
         <v>1001</v>
       </c>
-      <c r="F217" s="0" t="n">
+      <c r="F217">
         <v>484</v>
       </c>
-      <c r="G217" s="0" t="n">
+      <c r="G217">
         <v>241</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="n">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>48</v>
       </c>
-      <c r="B218" s="0" t="n">
+      <c r="B218">
         <v>20</v>
       </c>
-      <c r="C218" s="0" t="n">
+      <c r="C218">
         <v>42</v>
       </c>
-      <c r="D218" s="0" t="n">
+      <c r="D218">
         <v>976</v>
       </c>
-      <c r="E218" s="0" t="n">
+      <c r="E218">
         <v>1001</v>
       </c>
-      <c r="F218" s="0" t="n">
+      <c r="F218">
         <v>483</v>
       </c>
-      <c r="G218" s="0" t="n">
+      <c r="G218">
         <v>242</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="n">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>49</v>
       </c>
-      <c r="B219" s="0" t="n">
+      <c r="B219">
         <v>20</v>
       </c>
-      <c r="C219" s="0" t="n">
+      <c r="C219">
         <v>42</v>
       </c>
-      <c r="D219" s="0" t="n">
+      <c r="D219">
         <v>973</v>
       </c>
-      <c r="E219" s="0" t="n">
+      <c r="E219">
         <v>1000</v>
       </c>
-      <c r="F219" s="0" t="n">
+      <c r="F219">
         <v>484</v>
       </c>
-      <c r="G219" s="0" t="n">
+      <c r="G219">
         <v>242</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
